--- a/data/pca/factorExposure/factorExposure_2012-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01749358049031324</v>
+        <v>0.01669658328873507</v>
       </c>
       <c r="C2">
-        <v>0.03175595639444451</v>
+        <v>0.02639750782060362</v>
       </c>
       <c r="D2">
-        <v>0.01299771409963825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01237329385911358</v>
+      </c>
+      <c r="E2">
+        <v>0.01256929538364133</v>
+      </c>
+      <c r="F2">
+        <v>0.01446693952684138</v>
+      </c>
+      <c r="G2">
+        <v>-0.01270158333034575</v>
+      </c>
+      <c r="H2">
+        <v>-0.05037533991693374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07403098663987409</v>
+        <v>0.08815512585856597</v>
       </c>
       <c r="C4">
-        <v>0.0536914771510363</v>
+        <v>0.04139403735884586</v>
       </c>
       <c r="D4">
-        <v>0.08098884345231511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06506910087639833</v>
+      </c>
+      <c r="E4">
+        <v>0.009089628735746993</v>
+      </c>
+      <c r="F4">
+        <v>0.03647852213781035</v>
+      </c>
+      <c r="G4">
+        <v>-0.002964895623979517</v>
+      </c>
+      <c r="H4">
+        <v>0.03848383743726482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1096292628397951</v>
+        <v>0.1195164167035331</v>
       </c>
       <c r="C6">
-        <v>0.05104418191932666</v>
+        <v>0.0351038154769891</v>
       </c>
       <c r="D6">
-        <v>0.002988158908095651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01328608697670497</v>
+      </c>
+      <c r="E6">
+        <v>-0.02012234818828833</v>
+      </c>
+      <c r="F6">
+        <v>0.054941395775553</v>
+      </c>
+      <c r="G6">
+        <v>-0.03552893558902348</v>
+      </c>
+      <c r="H6">
+        <v>-0.1135898985174901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05230266217646665</v>
+        <v>0.06432836637357645</v>
       </c>
       <c r="C7">
-        <v>0.0239208889980635</v>
+        <v>0.01521848853003861</v>
       </c>
       <c r="D7">
-        <v>0.04475713268796991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0462860365197213</v>
+      </c>
+      <c r="E7">
+        <v>0.03777194156231247</v>
+      </c>
+      <c r="F7">
+        <v>0.03821864407295929</v>
+      </c>
+      <c r="G7">
+        <v>0.0365766171434615</v>
+      </c>
+      <c r="H7">
+        <v>0.009021660381052569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04006621193155847</v>
+        <v>0.04145386805108806</v>
       </c>
       <c r="C8">
-        <v>0.01482124166740627</v>
+        <v>0.01068390171231067</v>
       </c>
       <c r="D8">
-        <v>0.06306370432616934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02573005508818766</v>
+      </c>
+      <c r="E8">
+        <v>0.02040012247710206</v>
+      </c>
+      <c r="F8">
+        <v>0.05773690119768481</v>
+      </c>
+      <c r="G8">
+        <v>-0.05564261769022343</v>
+      </c>
+      <c r="H8">
+        <v>-0.009645793949418006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06906381843285368</v>
+        <v>0.07972460777491498</v>
       </c>
       <c r="C9">
-        <v>0.04071905906258715</v>
+        <v>0.02864421873758331</v>
       </c>
       <c r="D9">
-        <v>0.07142346626265528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06236891662610396</v>
+      </c>
+      <c r="E9">
+        <v>0.02864674481189823</v>
+      </c>
+      <c r="F9">
+        <v>0.03513494131579652</v>
+      </c>
+      <c r="G9">
+        <v>-0.009584508337880873</v>
+      </c>
+      <c r="H9">
+        <v>0.04881212493371487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03058499617304364</v>
+        <v>0.03424838560689665</v>
       </c>
       <c r="C10">
-        <v>0.02444936553912186</v>
+        <v>0.04192984379832675</v>
       </c>
       <c r="D10">
-        <v>-0.1667657825770938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1687054193402459</v>
+      </c>
+      <c r="E10">
+        <v>0.03906025912992374</v>
+      </c>
+      <c r="F10">
+        <v>0.05110749407203877</v>
+      </c>
+      <c r="G10">
+        <v>0.02501282809771982</v>
+      </c>
+      <c r="H10">
+        <v>-0.03265126742305692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07296400202746514</v>
+        <v>0.07737221553344223</v>
       </c>
       <c r="C11">
-        <v>0.04402336082662855</v>
+        <v>0.02623615468867209</v>
       </c>
       <c r="D11">
-        <v>0.05931525657157379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06270786752958588</v>
+      </c>
+      <c r="E11">
+        <v>-0.005137432030482119</v>
+      </c>
+      <c r="F11">
+        <v>0.02946227403328878</v>
+      </c>
+      <c r="G11">
+        <v>-0.0005439693218579117</v>
+      </c>
+      <c r="H11">
+        <v>0.08510015621412648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06054848070325169</v>
+        <v>0.06905547530384323</v>
       </c>
       <c r="C12">
-        <v>0.0517591266669945</v>
+        <v>0.03721680930491141</v>
       </c>
       <c r="D12">
-        <v>0.0494984196772823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04904722101884029</v>
+      </c>
+      <c r="E12">
+        <v>0.01226625570616565</v>
+      </c>
+      <c r="F12">
+        <v>0.02158536397936056</v>
+      </c>
+      <c r="G12">
+        <v>-0.001838874509225682</v>
+      </c>
+      <c r="H12">
+        <v>0.04026659507881074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06213094055200805</v>
+        <v>0.06598641744909985</v>
       </c>
       <c r="C13">
-        <v>0.03350338559512103</v>
+        <v>0.02069743961670457</v>
       </c>
       <c r="D13">
-        <v>0.0633856316362274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04356373281286834</v>
+      </c>
+      <c r="E13">
+        <v>0.01625575048877347</v>
+      </c>
+      <c r="F13">
+        <v>0.01193031107029014</v>
+      </c>
+      <c r="G13">
+        <v>0.007627052026622631</v>
+      </c>
+      <c r="H13">
+        <v>0.04997454255764569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03315957921750523</v>
+        <v>0.04034264417526177</v>
       </c>
       <c r="C14">
-        <v>0.03070135325055599</v>
+        <v>0.02824513975038253</v>
       </c>
       <c r="D14">
-        <v>0.003971043667141153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.009873348897544756</v>
+      </c>
+      <c r="E14">
+        <v>0.03123983719810677</v>
+      </c>
+      <c r="F14">
+        <v>0.01473818932006037</v>
+      </c>
+      <c r="G14">
+        <v>-0.00678086345118809</v>
+      </c>
+      <c r="H14">
+        <v>0.05922099531444373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04085654749640578</v>
+        <v>0.04046922932076777</v>
       </c>
       <c r="C15">
-        <v>0.00884146069359183</v>
+        <v>0.00308577338249419</v>
       </c>
       <c r="D15">
-        <v>0.01894865530668039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005138368805436212</v>
+      </c>
+      <c r="E15">
+        <v>0.03473805747732159</v>
+      </c>
+      <c r="F15">
+        <v>-0.0002815320353029753</v>
+      </c>
+      <c r="G15">
+        <v>-0.02395430108217332</v>
+      </c>
+      <c r="H15">
+        <v>0.03567451349409421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06176635034854275</v>
+        <v>0.0715054268544152</v>
       </c>
       <c r="C16">
-        <v>0.04091467514279953</v>
+        <v>0.0278914158198615</v>
       </c>
       <c r="D16">
-        <v>0.04838315895755116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06064759167259982</v>
+      </c>
+      <c r="E16">
+        <v>0.003133612462997763</v>
+      </c>
+      <c r="F16">
+        <v>0.0275313461030066</v>
+      </c>
+      <c r="G16">
+        <v>0.003309795388590509</v>
+      </c>
+      <c r="H16">
+        <v>0.05308012332032704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06211242240796534</v>
+        <v>0.06320248907895863</v>
       </c>
       <c r="C20">
-        <v>0.02430177755322213</v>
+        <v>0.01023540452927861</v>
       </c>
       <c r="D20">
-        <v>0.05365441997747459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03937752646925066</v>
+      </c>
+      <c r="E20">
+        <v>0.01788834470634519</v>
+      </c>
+      <c r="F20">
+        <v>0.02670475188392035</v>
+      </c>
+      <c r="G20">
+        <v>-0.01446582522224565</v>
+      </c>
+      <c r="H20">
+        <v>0.04579413219732371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02593704823024676</v>
+        <v>0.02615282781889764</v>
       </c>
       <c r="C21">
-        <v>-0.002924872873629393</v>
+        <v>-0.009601491841015709</v>
       </c>
       <c r="D21">
-        <v>0.02976991111147168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02581033525351835</v>
+      </c>
+      <c r="E21">
+        <v>0.04649340567060872</v>
+      </c>
+      <c r="F21">
+        <v>-0.01222226559613071</v>
+      </c>
+      <c r="G21">
+        <v>-0.008039333800050839</v>
+      </c>
+      <c r="H21">
+        <v>-0.0510004607750667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07875104663297219</v>
+        <v>0.0728569991336388</v>
       </c>
       <c r="C22">
-        <v>0.06043829035965258</v>
+        <v>0.03870668546508251</v>
       </c>
       <c r="D22">
-        <v>0.1230891224141506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08370683414712758</v>
+      </c>
+      <c r="E22">
+        <v>0.6006809875602805</v>
+      </c>
+      <c r="F22">
+        <v>-0.1563460318767167</v>
+      </c>
+      <c r="G22">
+        <v>0.06992001339977744</v>
+      </c>
+      <c r="H22">
+        <v>-0.1565899423711324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07969690903550743</v>
+        <v>0.07359816239364501</v>
       </c>
       <c r="C23">
-        <v>0.05915076887751722</v>
+        <v>0.03715035813766612</v>
       </c>
       <c r="D23">
-        <v>0.1246376778719121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08464730520719232</v>
+      </c>
+      <c r="E23">
+        <v>0.5999588182082389</v>
+      </c>
+      <c r="F23">
+        <v>-0.1553756853735236</v>
+      </c>
+      <c r="G23">
+        <v>0.06869349857495</v>
+      </c>
+      <c r="H23">
+        <v>-0.1521941935122867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07431286376924356</v>
+        <v>0.08077352191255481</v>
       </c>
       <c r="C24">
-        <v>0.05112832684322324</v>
+        <v>0.03412507346213455</v>
       </c>
       <c r="D24">
-        <v>0.06097917359949131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0609804013315995</v>
+      </c>
+      <c r="E24">
+        <v>0.01724042790776293</v>
+      </c>
+      <c r="F24">
+        <v>0.03664930413967429</v>
+      </c>
+      <c r="G24">
+        <v>-0.01327161240943295</v>
+      </c>
+      <c r="H24">
+        <v>0.04875235365755348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07401705628445135</v>
+        <v>0.07901132579747627</v>
       </c>
       <c r="C25">
-        <v>0.05449174832071382</v>
+        <v>0.03719575157780055</v>
       </c>
       <c r="D25">
-        <v>0.06846119646141131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05297992008443728</v>
+      </c>
+      <c r="E25">
+        <v>0.01942352822128406</v>
+      </c>
+      <c r="F25">
+        <v>0.02745162810275043</v>
+      </c>
+      <c r="G25">
+        <v>-0.0200509945714929</v>
+      </c>
+      <c r="H25">
+        <v>0.05306802975749228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04611329680032957</v>
+        <v>0.0478956484764842</v>
       </c>
       <c r="C26">
-        <v>0.009409685151617069</v>
+        <v>0.002399144998421574</v>
       </c>
       <c r="D26">
-        <v>0.01312135728177668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01847050119023064</v>
+      </c>
+      <c r="E26">
+        <v>0.04662688919268269</v>
+      </c>
+      <c r="F26">
+        <v>0.02784239757202699</v>
+      </c>
+      <c r="G26">
+        <v>0.009365416975246307</v>
+      </c>
+      <c r="H26">
+        <v>0.05714522415205105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05435067978045877</v>
+        <v>0.06231003896754021</v>
       </c>
       <c r="C28">
-        <v>0.06698672111121991</v>
+        <v>0.09081747269084867</v>
       </c>
       <c r="D28">
-        <v>-0.3093520092925018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3048736892948981</v>
+      </c>
+      <c r="E28">
+        <v>0.03305902196087202</v>
+      </c>
+      <c r="F28">
+        <v>0.05640883209763275</v>
+      </c>
+      <c r="G28">
+        <v>-0.03152424397253044</v>
+      </c>
+      <c r="H28">
+        <v>-0.04651660894061586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0420189471790415</v>
+        <v>0.04880343573879019</v>
       </c>
       <c r="C29">
-        <v>0.028931176334479</v>
+        <v>0.0258143890625461</v>
       </c>
       <c r="D29">
-        <v>0.009561433849348749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008091811220833472</v>
+      </c>
+      <c r="E29">
+        <v>0.05988660044104445</v>
+      </c>
+      <c r="F29">
+        <v>0.01126353488310347</v>
+      </c>
+      <c r="G29">
+        <v>0.008825441375477801</v>
+      </c>
+      <c r="H29">
+        <v>0.07289352312752907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1275038115851174</v>
+        <v>0.1306378921442467</v>
       </c>
       <c r="C30">
-        <v>0.08623698937038217</v>
+        <v>0.06127318804831257</v>
       </c>
       <c r="D30">
-        <v>0.1001170006241376</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06941147735218513</v>
+      </c>
+      <c r="E30">
+        <v>0.08100601312957514</v>
+      </c>
+      <c r="F30">
+        <v>-0.004952537841410295</v>
+      </c>
+      <c r="G30">
+        <v>-0.08380146600451184</v>
+      </c>
+      <c r="H30">
+        <v>-0.05299484016465431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04461211319801968</v>
+        <v>0.04911396209837783</v>
       </c>
       <c r="C31">
-        <v>0.02226015492765509</v>
+        <v>0.0139773250330548</v>
       </c>
       <c r="D31">
-        <v>0.02263525510070014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02869858126705983</v>
+      </c>
+      <c r="E31">
+        <v>0.02343576972392209</v>
+      </c>
+      <c r="F31">
+        <v>0.01198475393723688</v>
+      </c>
+      <c r="G31">
+        <v>0.02513930866422691</v>
+      </c>
+      <c r="H31">
+        <v>0.06354378904841408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03868723571618482</v>
+        <v>0.03948769979988312</v>
       </c>
       <c r="C32">
-        <v>0.02657919342131474</v>
+        <v>0.02214615792311367</v>
       </c>
       <c r="D32">
-        <v>0.02547795874137767</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01108959404060928</v>
+      </c>
+      <c r="E32">
+        <v>0.05185347670339514</v>
+      </c>
+      <c r="F32">
+        <v>-0.006942951599503918</v>
+      </c>
+      <c r="G32">
+        <v>-0.02761955176520018</v>
+      </c>
+      <c r="H32">
+        <v>0.0691304768919718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08485523824885446</v>
+        <v>0.09647849185678048</v>
       </c>
       <c r="C33">
-        <v>0.04040267877070083</v>
+        <v>0.02624790206293396</v>
       </c>
       <c r="D33">
-        <v>0.06077476396018849</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04621164863827237</v>
+      </c>
+      <c r="E33">
+        <v>0.01460732489699682</v>
+      </c>
+      <c r="F33">
+        <v>0.007046504776434107</v>
+      </c>
+      <c r="G33">
+        <v>0.007782739063234041</v>
+      </c>
+      <c r="H33">
+        <v>0.05087543633961025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.058694674048191</v>
+        <v>0.06391566523747436</v>
       </c>
       <c r="C34">
-        <v>0.02584324839982739</v>
+        <v>0.01214873231746632</v>
       </c>
       <c r="D34">
-        <v>0.05806968986236734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05108204638794567</v>
+      </c>
+      <c r="E34">
+        <v>0.007498527915346712</v>
+      </c>
+      <c r="F34">
+        <v>0.01893808885783181</v>
+      </c>
+      <c r="G34">
+        <v>0.0009642259310133228</v>
+      </c>
+      <c r="H34">
+        <v>0.05946876040645174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03732136732116646</v>
+        <v>0.03934931386435585</v>
       </c>
       <c r="C35">
-        <v>0.007373072096018932</v>
+        <v>0.002720018587509294</v>
       </c>
       <c r="D35">
-        <v>0.0155971448124669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01048940164937927</v>
+      </c>
+      <c r="E35">
+        <v>0.02096562023536878</v>
+      </c>
+      <c r="F35">
+        <v>-0.01409115773695711</v>
+      </c>
+      <c r="G35">
+        <v>0.008643308264003557</v>
+      </c>
+      <c r="H35">
+        <v>0.01660956380443354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0226519206755545</v>
+        <v>0.02904738482078776</v>
       </c>
       <c r="C36">
-        <v>0.0171681065072736</v>
+        <v>0.01492045755602957</v>
       </c>
       <c r="D36">
-        <v>0.0250412978509318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01732065453838576</v>
+      </c>
+      <c r="E36">
+        <v>0.03195646955533819</v>
+      </c>
+      <c r="F36">
+        <v>0.02180412865458117</v>
+      </c>
+      <c r="G36">
+        <v>0.009307594778664989</v>
+      </c>
+      <c r="H36">
+        <v>0.04480062293037352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04192312277485618</v>
+        <v>0.04467847273283444</v>
       </c>
       <c r="C38">
-        <v>0.00131836516743745</v>
+        <v>-0.00420289090979105</v>
       </c>
       <c r="D38">
-        <v>0.01803999648491261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01822170769741338</v>
+      </c>
+      <c r="E38">
+        <v>0.05234165787577661</v>
+      </c>
+      <c r="F38">
+        <v>-0.004883441919735345</v>
+      </c>
+      <c r="G38">
+        <v>-0.006559911770874286</v>
+      </c>
+      <c r="H38">
+        <v>0.03703833954677888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09266557513838755</v>
+        <v>0.1023034378211657</v>
       </c>
       <c r="C39">
-        <v>0.0700461831819329</v>
+        <v>0.05017238285790072</v>
       </c>
       <c r="D39">
-        <v>0.05533022284657412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06163024744195628</v>
+      </c>
+      <c r="E39">
+        <v>0.004957012155091338</v>
+      </c>
+      <c r="F39">
+        <v>-0.001317184926759717</v>
+      </c>
+      <c r="G39">
+        <v>-0.03743158069428187</v>
+      </c>
+      <c r="H39">
+        <v>0.04358951553829613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0781149982994199</v>
+        <v>0.07164209583768791</v>
       </c>
       <c r="C40">
-        <v>0.03241516473496994</v>
+        <v>0.01390285305567545</v>
       </c>
       <c r="D40">
-        <v>0.001206878379398347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01077617947306818</v>
+      </c>
+      <c r="E40">
+        <v>0.02184027853270679</v>
+      </c>
+      <c r="F40">
+        <v>-0.05610207569506918</v>
+      </c>
+      <c r="G40">
+        <v>-0.05720520823621206</v>
+      </c>
+      <c r="H40">
+        <v>-0.1063462445730225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04285939015853293</v>
+        <v>0.04460716961527564</v>
       </c>
       <c r="C41">
-        <v>0.005076304545597443</v>
+        <v>-0.00316452340247557</v>
       </c>
       <c r="D41">
-        <v>0.03129191402382933</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03287343866073513</v>
+      </c>
+      <c r="E41">
+        <v>0.000254029000016122</v>
+      </c>
+      <c r="F41">
+        <v>-0.0165942665363946</v>
+      </c>
+      <c r="G41">
+        <v>-0.008344146907782422</v>
+      </c>
+      <c r="H41">
+        <v>0.03433747756323864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05122989490584738</v>
+        <v>0.05929260521017279</v>
       </c>
       <c r="C43">
-        <v>0.02547550415890368</v>
+        <v>0.01793368236083368</v>
       </c>
       <c r="D43">
-        <v>0.01490273164088627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02561285473437819</v>
+      </c>
+      <c r="E43">
+        <v>0.02100088649620398</v>
+      </c>
+      <c r="F43">
+        <v>0.01149781534232221</v>
+      </c>
+      <c r="G43">
+        <v>0.01771993268343075</v>
+      </c>
+      <c r="H43">
+        <v>0.05916714019040318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09755536378296056</v>
+        <v>0.09822719789354288</v>
       </c>
       <c r="C44">
-        <v>0.08676451643186522</v>
+        <v>0.06356473862572715</v>
       </c>
       <c r="D44">
-        <v>0.07907920775895144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05695672926134552</v>
+      </c>
+      <c r="E44">
+        <v>0.08224176775480886</v>
+      </c>
+      <c r="F44">
+        <v>0.0661650375355969</v>
+      </c>
+      <c r="G44">
+        <v>-0.02851258059807722</v>
+      </c>
+      <c r="H44">
+        <v>0.02252221760432733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02580523897455628</v>
+        <v>0.03427060182827851</v>
       </c>
       <c r="C46">
-        <v>0.01412793714938147</v>
+        <v>0.01090695377317142</v>
       </c>
       <c r="D46">
-        <v>0.02439249154619246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03401295204518121</v>
+      </c>
+      <c r="E46">
+        <v>0.03498102167215441</v>
+      </c>
+      <c r="F46">
+        <v>0.016137566939793</v>
+      </c>
+      <c r="G46">
+        <v>0.009060810471152224</v>
+      </c>
+      <c r="H46">
+        <v>0.03384245180924527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03097655160072734</v>
+        <v>0.03845994171002948</v>
       </c>
       <c r="C47">
-        <v>0.02477292703599223</v>
+        <v>0.0212705577933876</v>
       </c>
       <c r="D47">
-        <v>0.009708843002269698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008388166455521312</v>
+      </c>
+      <c r="E47">
+        <v>0.04627287376369971</v>
+      </c>
+      <c r="F47">
+        <v>0.01050066780528437</v>
+      </c>
+      <c r="G47">
+        <v>0.04357272921110225</v>
+      </c>
+      <c r="H47">
+        <v>0.02576779025995364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03401237587589175</v>
+        <v>0.03829793359051975</v>
       </c>
       <c r="C48">
-        <v>0.0179217136744549</v>
+        <v>0.01091878774580103</v>
       </c>
       <c r="D48">
-        <v>0.03121017827131436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02073075589380506</v>
+      </c>
+      <c r="E48">
+        <v>0.04033174924052966</v>
+      </c>
+      <c r="F48">
+        <v>0.007257278004611902</v>
+      </c>
+      <c r="G48">
+        <v>-0.01256829044369159</v>
+      </c>
+      <c r="H48">
+        <v>0.04060557066008515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1624221562419806</v>
+        <v>0.1896638420744342</v>
       </c>
       <c r="C49">
-        <v>0.04952379025519177</v>
+        <v>0.03051101145159468</v>
       </c>
       <c r="D49">
-        <v>-0.009430166461909441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02913386212017563</v>
+      </c>
+      <c r="E49">
+        <v>-0.1566668771028652</v>
+      </c>
+      <c r="F49">
+        <v>0.05727541843364136</v>
+      </c>
+      <c r="G49">
+        <v>0.06077136394193682</v>
+      </c>
+      <c r="H49">
+        <v>-0.2226758754223838</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04018597955800503</v>
+        <v>0.04625141689790722</v>
       </c>
       <c r="C50">
-        <v>0.0201529800916982</v>
+        <v>0.01407862036445947</v>
       </c>
       <c r="D50">
-        <v>0.03991907416119072</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03281289778441705</v>
+      </c>
+      <c r="E50">
+        <v>0.04284804753267048</v>
+      </c>
+      <c r="F50">
+        <v>0.01441894040573131</v>
+      </c>
+      <c r="G50">
+        <v>0.02224669905302333</v>
+      </c>
+      <c r="H50">
+        <v>0.06656325845681996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02832075907835583</v>
+        <v>0.03007271076810601</v>
       </c>
       <c r="C51">
-        <v>0.01066549848782963</v>
+        <v>0.004449832375192566</v>
       </c>
       <c r="D51">
-        <v>0.01026508420912981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01227389479197951</v>
+      </c>
+      <c r="E51">
+        <v>0.01314240592931671</v>
+      </c>
+      <c r="F51">
+        <v>0.01587075976965881</v>
+      </c>
+      <c r="G51">
+        <v>0.0008291320744260821</v>
+      </c>
+      <c r="H51">
+        <v>-0.001840474172478982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1550112005005835</v>
+        <v>0.1630795466161973</v>
       </c>
       <c r="C53">
-        <v>0.07156389463549312</v>
+        <v>0.04966258929782608</v>
       </c>
       <c r="D53">
-        <v>0.008656688563356909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01953825028274864</v>
+      </c>
+      <c r="E53">
+        <v>-0.03021299440677359</v>
+      </c>
+      <c r="F53">
+        <v>0.01497185051335466</v>
+      </c>
+      <c r="G53">
+        <v>0.02370482834031052</v>
+      </c>
+      <c r="H53">
+        <v>0.1802425079033492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05806798278159315</v>
+        <v>0.05859016229902417</v>
       </c>
       <c r="C54">
-        <v>0.02302383134144209</v>
+        <v>0.01305060111727053</v>
       </c>
       <c r="D54">
-        <v>0.02025137471465671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0144456622455716</v>
+      </c>
+      <c r="E54">
+        <v>0.04615270030690633</v>
+      </c>
+      <c r="F54">
+        <v>0.006464389422208776</v>
+      </c>
+      <c r="G54">
+        <v>-0.01365032387802</v>
+      </c>
+      <c r="H54">
+        <v>0.048614359154969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1000010339087042</v>
+        <v>0.1039175934793534</v>
       </c>
       <c r="C55">
-        <v>0.04889435620308448</v>
+        <v>0.03320715349731963</v>
       </c>
       <c r="D55">
-        <v>0.0197902750788019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02385022056803106</v>
+      </c>
+      <c r="E55">
+        <v>0.009739634060551002</v>
+      </c>
+      <c r="F55">
+        <v>0.01358625195591326</v>
+      </c>
+      <c r="G55">
+        <v>0.01658587968063761</v>
+      </c>
+      <c r="H55">
+        <v>0.1570528410238751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1519335853974961</v>
+        <v>0.1618457636034492</v>
       </c>
       <c r="C56">
-        <v>0.08387596885001648</v>
+        <v>0.06062807463429911</v>
       </c>
       <c r="D56">
-        <v>0.01596325752952448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0237615765967531</v>
+      </c>
+      <c r="E56">
+        <v>-0.02243617725498797</v>
+      </c>
+      <c r="F56">
+        <v>0.03132763725615711</v>
+      </c>
+      <c r="G56">
+        <v>0.03790847341212406</v>
+      </c>
+      <c r="H56">
+        <v>0.180649733345572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1305208797507886</v>
+        <v>0.1007857184824217</v>
       </c>
       <c r="C58">
-        <v>-0.003374534464836366</v>
+        <v>-0.04359307446609939</v>
       </c>
       <c r="D58">
-        <v>0.03310432745421078</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03352263958077983</v>
+      </c>
+      <c r="E58">
+        <v>0.1431735515340828</v>
+      </c>
+      <c r="F58">
+        <v>-0.002276700202079727</v>
+      </c>
+      <c r="G58">
+        <v>0.01648050649293197</v>
+      </c>
+      <c r="H58">
+        <v>-0.2277546017086154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.123557653928218</v>
+        <v>0.1377803974427561</v>
       </c>
       <c r="C59">
-        <v>0.07334175614093266</v>
+        <v>0.09713457790043294</v>
       </c>
       <c r="D59">
-        <v>-0.3686811326643795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3622853163026196</v>
+      </c>
+      <c r="E59">
+        <v>0.02688545139027771</v>
+      </c>
+      <c r="F59">
+        <v>0.01378474260563474</v>
+      </c>
+      <c r="G59">
+        <v>0.01766101654226816</v>
+      </c>
+      <c r="H59">
+        <v>-0.0003629987407909081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2069928725688288</v>
+        <v>0.2343444419507186</v>
       </c>
       <c r="C60">
-        <v>0.08961107232854165</v>
+        <v>0.06167762345109856</v>
       </c>
       <c r="D60">
-        <v>0.02060423085930977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04447577154284902</v>
+      </c>
+      <c r="E60">
+        <v>-0.1005491824767969</v>
+      </c>
+      <c r="F60">
+        <v>0.05479048379898277</v>
+      </c>
+      <c r="G60">
+        <v>-0.02129403000565475</v>
+      </c>
+      <c r="H60">
+        <v>-0.139760165093315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08318862067839172</v>
+        <v>0.08969193059615412</v>
       </c>
       <c r="C61">
-        <v>0.05015403748522619</v>
+        <v>0.03617852724647173</v>
       </c>
       <c r="D61">
-        <v>0.04509727932793545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04255630093088045</v>
+      </c>
+      <c r="E61">
+        <v>0.002253738223112345</v>
+      </c>
+      <c r="F61">
+        <v>0.002097329532663959</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001450414283130681</v>
+      </c>
+      <c r="H61">
+        <v>0.0600737890117796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1317483088601729</v>
+        <v>0.1388458946625629</v>
       </c>
       <c r="C62">
-        <v>0.05889087614407454</v>
+        <v>0.03640132416527903</v>
       </c>
       <c r="D62">
-        <v>0.01545806210601051</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03208182162230214</v>
+      </c>
+      <c r="E62">
+        <v>-0.05835189394381431</v>
+      </c>
+      <c r="F62">
+        <v>0.01040765552567509</v>
+      </c>
+      <c r="G62">
+        <v>-0.004768795408529506</v>
+      </c>
+      <c r="H62">
+        <v>0.1827534988273326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05196779086301034</v>
+        <v>0.05142787336797641</v>
       </c>
       <c r="C63">
-        <v>0.02284275383018704</v>
+        <v>0.01269250643380719</v>
       </c>
       <c r="D63">
-        <v>0.02405961865773279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02095262490833285</v>
+      </c>
+      <c r="E63">
+        <v>0.04916102561839884</v>
+      </c>
+      <c r="F63">
+        <v>-0.006111876426646819</v>
+      </c>
+      <c r="G63">
+        <v>-0.01927297192206139</v>
+      </c>
+      <c r="H63">
+        <v>0.05184153513766638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1034850635071249</v>
+        <v>0.1078845678654292</v>
       </c>
       <c r="C64">
-        <v>0.03093955201199815</v>
+        <v>0.0161021591730507</v>
       </c>
       <c r="D64">
-        <v>0.04223842313500772</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03147107672012439</v>
+      </c>
+      <c r="E64">
+        <v>0.03194743700668581</v>
+      </c>
+      <c r="F64">
+        <v>0.03933259256890996</v>
+      </c>
+      <c r="G64">
+        <v>-0.04907768649263884</v>
+      </c>
+      <c r="H64">
+        <v>0.04483936453954145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1269947851795346</v>
+        <v>0.1268290729862512</v>
       </c>
       <c r="C65">
-        <v>0.05789556522143813</v>
+        <v>0.03972779674394136</v>
       </c>
       <c r="D65">
-        <v>-0.008510789529241615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.008754718388562111</v>
+      </c>
+      <c r="E65">
+        <v>-0.00101715974523713</v>
+      </c>
+      <c r="F65">
+        <v>0.05344273492227357</v>
+      </c>
+      <c r="G65">
+        <v>-0.05947118585317079</v>
+      </c>
+      <c r="H65">
+        <v>-0.1439945237936916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1476476772673594</v>
+        <v>0.1542847729950078</v>
       </c>
       <c r="C66">
-        <v>0.06773755241275281</v>
+        <v>0.03932114953513643</v>
       </c>
       <c r="D66">
-        <v>0.106823089278929</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09656210218960529</v>
+      </c>
+      <c r="E66">
+        <v>-0.02266558139384237</v>
+      </c>
+      <c r="F66">
+        <v>0.007389413590946129</v>
+      </c>
+      <c r="G66">
+        <v>-0.04269632801636822</v>
+      </c>
+      <c r="H66">
+        <v>0.1110968616946772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07490686923579236</v>
+        <v>0.08474035806530877</v>
       </c>
       <c r="C67">
-        <v>0.009136511134205974</v>
+        <v>0.0007908159470027621</v>
       </c>
       <c r="D67">
-        <v>0.02091883375062829</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0297197723010361</v>
+      </c>
+      <c r="E67">
+        <v>0.01967595971926463</v>
+      </c>
+      <c r="F67">
+        <v>0.0213018119368622</v>
+      </c>
+      <c r="G67">
+        <v>0.01126569200876033</v>
+      </c>
+      <c r="H67">
+        <v>0.0412153072599486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06005256136944561</v>
+        <v>0.05824156610638207</v>
       </c>
       <c r="C68">
-        <v>0.04742644858357339</v>
+        <v>0.06693032409417737</v>
       </c>
       <c r="D68">
-        <v>-0.2543933804814433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2679771372337738</v>
+      </c>
+      <c r="E68">
+        <v>0.03879911423836368</v>
+      </c>
+      <c r="F68">
+        <v>0.01615357854533879</v>
+      </c>
+      <c r="G68">
+        <v>0.01314100629460693</v>
+      </c>
+      <c r="H68">
+        <v>0.005846183448879541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0521586267828073</v>
+        <v>0.0528901122810246</v>
       </c>
       <c r="C69">
-        <v>0.0156863120715597</v>
+        <v>0.005580046123676891</v>
       </c>
       <c r="D69">
-        <v>0.02260018687421823</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01687048894573542</v>
+      </c>
+      <c r="E69">
+        <v>0.02661102417670785</v>
+      </c>
+      <c r="F69">
+        <v>-0.008523952893692979</v>
+      </c>
+      <c r="G69">
+        <v>0.02507103475963281</v>
+      </c>
+      <c r="H69">
+        <v>0.04739214683696774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003322045272193002</v>
+        <v>0.02610936628530808</v>
       </c>
       <c r="C70">
-        <v>-0.009355257183056709</v>
+        <v>-0.003711145967583616</v>
       </c>
       <c r="D70">
-        <v>-0.005179264687920076</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.000566144120192904</v>
+      </c>
+      <c r="E70">
+        <v>-0.02221053598089123</v>
+      </c>
+      <c r="F70">
+        <v>0.009574950808543363</v>
+      </c>
+      <c r="G70">
+        <v>0.02055358614869973</v>
+      </c>
+      <c r="H70">
+        <v>-0.02133605624516704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0588074093951371</v>
+        <v>0.06026549743558337</v>
       </c>
       <c r="C71">
-        <v>0.04641425318806502</v>
+        <v>0.07193439122370636</v>
       </c>
       <c r="D71">
-        <v>-0.2911280685954507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.29378874416711</v>
+      </c>
+      <c r="E71">
+        <v>0.03409911907582156</v>
+      </c>
+      <c r="F71">
+        <v>0.04310958877876517</v>
+      </c>
+      <c r="G71">
+        <v>0.001043530369846475</v>
+      </c>
+      <c r="H71">
+        <v>0.007585436405689603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1427582290100508</v>
+        <v>0.1445633185595071</v>
       </c>
       <c r="C72">
-        <v>0.05865467874483934</v>
+        <v>0.03262913134853385</v>
       </c>
       <c r="D72">
-        <v>0.003908409645901834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0008503829964168714</v>
+      </c>
+      <c r="E72">
+        <v>-0.08315419591427915</v>
+      </c>
+      <c r="F72">
+        <v>-0.1684820425053266</v>
+      </c>
+      <c r="G72">
+        <v>-0.1158079595014816</v>
+      </c>
+      <c r="H72">
+        <v>0.01489454187437223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2851112633160241</v>
+        <v>0.2893983258982405</v>
       </c>
       <c r="C73">
-        <v>0.09464148833538651</v>
+        <v>0.0352512122778031</v>
       </c>
       <c r="D73">
-        <v>0.04577612179024854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09201107812370274</v>
+      </c>
+      <c r="E73">
+        <v>-0.2199841371467351</v>
+      </c>
+      <c r="F73">
+        <v>0.09598094117899464</v>
+      </c>
+      <c r="G73">
+        <v>0.1352417006331715</v>
+      </c>
+      <c r="H73">
+        <v>-0.505770837080213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08142675786351736</v>
+        <v>0.09160829519793484</v>
       </c>
       <c r="C74">
-        <v>0.0746008427103213</v>
+        <v>0.06002797263597837</v>
       </c>
       <c r="D74">
-        <v>0.01021708493698767</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03151203048013921</v>
+      </c>
+      <c r="E74">
+        <v>-0.003101957008633859</v>
+      </c>
+      <c r="F74">
+        <v>0.000507066231216757</v>
+      </c>
+      <c r="G74">
+        <v>0.05459428166220616</v>
+      </c>
+      <c r="H74">
+        <v>0.1136330088709143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09712711389659302</v>
+        <v>0.1017635902291182</v>
       </c>
       <c r="C75">
-        <v>0.04746047955609986</v>
+        <v>0.02641779634103627</v>
       </c>
       <c r="D75">
-        <v>0.006709337497878539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01515084310371441</v>
+      </c>
+      <c r="E75">
+        <v>0.001816380577823907</v>
+      </c>
+      <c r="F75">
+        <v>0.02084248576911619</v>
+      </c>
+      <c r="G75">
+        <v>0.02650866164470447</v>
+      </c>
+      <c r="H75">
+        <v>0.1130448848166374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1324896058682295</v>
+        <v>0.141833184399421</v>
       </c>
       <c r="C76">
-        <v>0.07893705346230445</v>
+        <v>0.05728081905502876</v>
       </c>
       <c r="D76">
-        <v>0.04276246342265048</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04775955704760428</v>
+      </c>
+      <c r="E76">
+        <v>0.01648541433434407</v>
+      </c>
+      <c r="F76">
+        <v>0.04539169784330171</v>
+      </c>
+      <c r="G76">
+        <v>0.01568966162745538</v>
+      </c>
+      <c r="H76">
+        <v>0.203995016044882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178189679921022</v>
+        <v>0.1079442691078563</v>
       </c>
       <c r="C77">
-        <v>0.00785904746707307</v>
+        <v>-0.01766512636668397</v>
       </c>
       <c r="D77">
-        <v>0.07489207562469997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02700639713934957</v>
+      </c>
+      <c r="E77">
+        <v>0.01713851555760292</v>
+      </c>
+      <c r="F77">
+        <v>0.09607021210988917</v>
+      </c>
+      <c r="G77">
+        <v>-0.8922983433817967</v>
+      </c>
+      <c r="H77">
+        <v>-0.08116553629440219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1066999745529117</v>
+        <v>0.1449246998392994</v>
       </c>
       <c r="C78">
-        <v>0.0363143740613544</v>
+        <v>0.03115072341155217</v>
       </c>
       <c r="D78">
-        <v>0.08500237633083893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08153089136045484</v>
+      </c>
+      <c r="E78">
+        <v>0.05522561552334537</v>
+      </c>
+      <c r="F78">
+        <v>0.05281812411638433</v>
+      </c>
+      <c r="G78">
+        <v>-0.08665419478945212</v>
+      </c>
+      <c r="H78">
+        <v>-0.03467142908219739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1485682760224818</v>
+        <v>0.1511848287370955</v>
       </c>
       <c r="C79">
-        <v>0.06657342570708286</v>
+        <v>0.0392061639023206</v>
       </c>
       <c r="D79">
-        <v>0.02341048858349819</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02751620350002815</v>
+      </c>
+      <c r="E79">
+        <v>-0.01694122381217545</v>
+      </c>
+      <c r="F79">
+        <v>0.01984110290040189</v>
+      </c>
+      <c r="G79">
+        <v>0.04184526412252069</v>
+      </c>
+      <c r="H79">
+        <v>0.1646791971868804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04214756834904892</v>
+        <v>0.04313917530227995</v>
       </c>
       <c r="C80">
-        <v>0.01940824018495993</v>
+        <v>0.0144514032134132</v>
       </c>
       <c r="D80">
-        <v>0.02793243924707184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01197406432076422</v>
+      </c>
+      <c r="E80">
+        <v>-0.03011290974011933</v>
+      </c>
+      <c r="F80">
+        <v>0.008485361413312797</v>
+      </c>
+      <c r="G80">
+        <v>0.02356867784065172</v>
+      </c>
+      <c r="H80">
+        <v>0.03388879806983926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1189911354275319</v>
+        <v>0.1205725112069851</v>
       </c>
       <c r="C81">
-        <v>0.05931690750539046</v>
+        <v>0.03672138815221035</v>
       </c>
       <c r="D81">
-        <v>0.03102270742248123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02507852997943846</v>
+      </c>
+      <c r="E81">
+        <v>0.008981506035879314</v>
+      </c>
+      <c r="F81">
+        <v>0.01970327118092255</v>
+      </c>
+      <c r="G81">
+        <v>0.06061937148334662</v>
+      </c>
+      <c r="H81">
+        <v>0.1504672091949393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1300355816576724</v>
+        <v>0.1313608214151918</v>
       </c>
       <c r="C82">
-        <v>0.06971619456599247</v>
+        <v>0.04843100213308615</v>
       </c>
       <c r="D82">
-        <v>0.01776776213783427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02826772818632527</v>
+      </c>
+      <c r="E82">
+        <v>-0.01959659922495118</v>
+      </c>
+      <c r="F82">
+        <v>0.04940698819721622</v>
+      </c>
+      <c r="G82">
+        <v>0.05672471621662818</v>
+      </c>
+      <c r="H82">
+        <v>0.2168551638254882</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07386971031891554</v>
+        <v>0.08546633817910275</v>
       </c>
       <c r="C83">
-        <v>-0.01760188389806982</v>
+        <v>-0.02952531579150885</v>
       </c>
       <c r="D83">
-        <v>0.02833232548834366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03145957516426478</v>
+      </c>
+      <c r="E83">
+        <v>0.02522316884646264</v>
+      </c>
+      <c r="F83">
+        <v>0.05925180442335308</v>
+      </c>
+      <c r="G83">
+        <v>0.07667533568225948</v>
+      </c>
+      <c r="H83">
+        <v>-0.06033852769639936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02966933493631409</v>
+        <v>0.03741884527908543</v>
       </c>
       <c r="C84">
-        <v>0.02879000060340819</v>
+        <v>0.02291816688567817</v>
       </c>
       <c r="D84">
-        <v>0.02818415331428133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03268766123664837</v>
+      </c>
+      <c r="E84">
+        <v>0.02976933682029583</v>
+      </c>
+      <c r="F84">
+        <v>-0.05008534618304331</v>
+      </c>
+      <c r="G84">
+        <v>0.0662780656784656</v>
+      </c>
+      <c r="H84">
+        <v>0.001174903609074693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1218423126134071</v>
+        <v>0.1226640062093504</v>
       </c>
       <c r="C85">
-        <v>0.04600964191888789</v>
+        <v>0.02440642907166613</v>
       </c>
       <c r="D85">
-        <v>0.01998326624826683</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02203656609874899</v>
+      </c>
+      <c r="E85">
+        <v>0.01655085936686946</v>
+      </c>
+      <c r="F85">
+        <v>0.04019715452850159</v>
+      </c>
+      <c r="G85">
+        <v>0.03528321465456319</v>
+      </c>
+      <c r="H85">
+        <v>0.155542387844723</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05447298326480648</v>
+        <v>0.05839181150128017</v>
       </c>
       <c r="C86">
-        <v>0.02138494173209559</v>
+        <v>0.01130782335268208</v>
       </c>
       <c r="D86">
-        <v>0.03526138863110186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03280058317481891</v>
+      </c>
+      <c r="E86">
+        <v>0.05786165049042855</v>
+      </c>
+      <c r="F86">
+        <v>0.02537517320119443</v>
+      </c>
+      <c r="G86">
+        <v>0.02851096824801498</v>
+      </c>
+      <c r="H86">
+        <v>-0.01205204342987084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1181476284466051</v>
+        <v>0.1227033681619955</v>
       </c>
       <c r="C87">
-        <v>0.06398951939675895</v>
+        <v>0.03443570898590266</v>
       </c>
       <c r="D87">
-        <v>0.08266810816433973</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07367908940119991</v>
+      </c>
+      <c r="E87">
+        <v>0.0187981055998235</v>
+      </c>
+      <c r="F87">
+        <v>0.01293104110215117</v>
+      </c>
+      <c r="G87">
+        <v>-0.1356457921784691</v>
+      </c>
+      <c r="H87">
+        <v>-0.0297919769254367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05324543546411888</v>
+        <v>0.0606644681422906</v>
       </c>
       <c r="C88">
-        <v>0.02864364121577189</v>
+        <v>0.02019367490869892</v>
       </c>
       <c r="D88">
-        <v>0.02347231517275774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03594710355920255</v>
+      </c>
+      <c r="E88">
+        <v>0.01672980300981944</v>
+      </c>
+      <c r="F88">
+        <v>0.009054765709309413</v>
+      </c>
+      <c r="G88">
+        <v>-0.00254009674517489</v>
+      </c>
+      <c r="H88">
+        <v>0.05437033525108939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08943418504140174</v>
+        <v>0.09604618263346683</v>
       </c>
       <c r="C89">
-        <v>0.06888229191810072</v>
+        <v>0.09564338937609186</v>
       </c>
       <c r="D89">
-        <v>-0.3279934398061136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3484971242771512</v>
+      </c>
+      <c r="E89">
+        <v>0.0720542745468911</v>
+      </c>
+      <c r="F89">
+        <v>0.0791996416499036</v>
+      </c>
+      <c r="G89">
+        <v>0.01553378431246713</v>
+      </c>
+      <c r="H89">
+        <v>0.003102129766294631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07566104914802532</v>
+        <v>0.0784795639761847</v>
       </c>
       <c r="C90">
-        <v>0.05653785645581511</v>
+        <v>0.07860089913809631</v>
       </c>
       <c r="D90">
-        <v>-0.3114717300375224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3031175462427103</v>
+      </c>
+      <c r="E90">
+        <v>0.06691656261719835</v>
+      </c>
+      <c r="F90">
+        <v>0.003691992946821228</v>
+      </c>
+      <c r="G90">
+        <v>0.003385767285590419</v>
+      </c>
+      <c r="H90">
+        <v>-0.00228880383266082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08922342583459766</v>
+        <v>0.09112926262196386</v>
       </c>
       <c r="C91">
-        <v>0.05071002454504744</v>
+        <v>0.03061560372142189</v>
       </c>
       <c r="D91">
-        <v>0.02400087874076658</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03179142867491162</v>
+      </c>
+      <c r="E91">
+        <v>0.006775212543192411</v>
+      </c>
+      <c r="F91">
+        <v>0.004163033675612384</v>
+      </c>
+      <c r="G91">
+        <v>0.05277095103431405</v>
+      </c>
+      <c r="H91">
+        <v>0.08449160544764794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07663571967806113</v>
+        <v>0.07882425721532543</v>
       </c>
       <c r="C92">
-        <v>0.07196795707132514</v>
+        <v>0.09755572748801924</v>
       </c>
       <c r="D92">
-        <v>-0.3365675787585248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3410009070514508</v>
+      </c>
+      <c r="E92">
+        <v>0.03928753829920859</v>
+      </c>
+      <c r="F92">
+        <v>0.04631694649893651</v>
+      </c>
+      <c r="G92">
+        <v>-0.01723211370102038</v>
+      </c>
+      <c r="H92">
+        <v>0.01707613355476555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06731732297249857</v>
+        <v>0.0757273357388802</v>
       </c>
       <c r="C93">
-        <v>0.06325391004247047</v>
+        <v>0.09108353181729806</v>
       </c>
       <c r="D93">
-        <v>-0.307899184240452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3045305807723415</v>
+      </c>
+      <c r="E93">
+        <v>0.02271787997684368</v>
+      </c>
+      <c r="F93">
+        <v>0.03634029751230182</v>
+      </c>
+      <c r="G93">
+        <v>-0.01883561865613146</v>
+      </c>
+      <c r="H93">
+        <v>-0.00968501735585163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.13607783241581</v>
+        <v>0.1289395839426906</v>
       </c>
       <c r="C94">
-        <v>0.04415977846943776</v>
+        <v>0.01349515307481263</v>
       </c>
       <c r="D94">
-        <v>0.03727960912700996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04610267252106288</v>
+      </c>
+      <c r="E94">
+        <v>-0.01839236108924992</v>
+      </c>
+      <c r="F94">
+        <v>0.01248653873635141</v>
+      </c>
+      <c r="G94">
+        <v>0.06549641587718018</v>
+      </c>
+      <c r="H94">
+        <v>0.09883554835863886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1230913224223329</v>
+        <v>0.1288259931751618</v>
       </c>
       <c r="C95">
-        <v>0.02609432585518493</v>
+        <v>-0.0002762923504534175</v>
       </c>
       <c r="D95">
-        <v>0.06540960350866777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06679746664218253</v>
+      </c>
+      <c r="E95">
+        <v>0.0117944989877303</v>
+      </c>
+      <c r="F95">
+        <v>0.03808805979531692</v>
+      </c>
+      <c r="G95">
+        <v>-0.01409108561081602</v>
+      </c>
+      <c r="H95">
+        <v>-0.04001531198547809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2206866168750273</v>
+        <v>0.2050519297238456</v>
       </c>
       <c r="C97">
-        <v>0.04014231354556755</v>
+        <v>-0.003768502362226182</v>
       </c>
       <c r="D97">
-        <v>-0.1078625464167536</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08303625181951262</v>
+      </c>
+      <c r="E97">
+        <v>-0.2012973725006779</v>
+      </c>
+      <c r="F97">
+        <v>-0.9053676898064068</v>
+      </c>
+      <c r="G97">
+        <v>-0.06234721079940567</v>
+      </c>
+      <c r="H97">
+        <v>0.0145877455474959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2503101668326666</v>
+        <v>0.2759004922802057</v>
       </c>
       <c r="C98">
-        <v>0.06009287637575111</v>
+        <v>0.02249627012486619</v>
       </c>
       <c r="D98">
-        <v>0.02977165344901544</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05316256701245633</v>
+      </c>
+      <c r="E98">
+        <v>-0.1835720524680298</v>
+      </c>
+      <c r="F98">
+        <v>0.06878044954645278</v>
+      </c>
+      <c r="G98">
+        <v>0.2350396269873061</v>
+      </c>
+      <c r="H98">
+        <v>-0.2485708263337072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4019297248626728</v>
+        <v>0.2704023571449652</v>
       </c>
       <c r="C99">
-        <v>-0.8983108418175302</v>
+        <v>-0.9306659155938189</v>
       </c>
       <c r="D99">
-        <v>-0.05094357430667847</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1652303438499274</v>
+      </c>
+      <c r="E99">
+        <v>0.07222243818689453</v>
+      </c>
+      <c r="F99">
+        <v>0.05892097098194618</v>
+      </c>
+      <c r="G99">
+        <v>0.02338375747244384</v>
+      </c>
+      <c r="H99">
+        <v>0.07165252932433158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04186227689461759</v>
+        <v>0.04874029477877224</v>
       </c>
       <c r="C101">
-        <v>0.02906171614470321</v>
+        <v>0.0260502239787927</v>
       </c>
       <c r="D101">
-        <v>0.01016587568703989</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008255163849150296</v>
+      </c>
+      <c r="E101">
+        <v>0.05984291909603145</v>
+      </c>
+      <c r="F101">
+        <v>0.01095259259932299</v>
+      </c>
+      <c r="G101">
+        <v>0.009239036886915101</v>
+      </c>
+      <c r="H101">
+        <v>0.07174914758736457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
